--- a/data/raw/REWindSolar.xlsx
+++ b/data/raw/REWindSolar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/vignesh_raghunathan_wur_nl/Documents/Internship/Literature Review/Final Data Processing/Mitigation_EntryPoints_CodeRepo/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{AF699121-C288-4EB7-B319-6E1C495CD45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AA410FC-EF58-4074-8262-5560AD1B7E5F}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{AF699121-C288-4EB7-B319-6E1C495CD45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DB5FD37-6955-4FBF-BABD-56CA2CFFBB69}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{BB154F08-85AE-4E5F-A669-15A2B9050D97}"/>
+    <workbookView xWindow="12710" yWindow="-14400" windowWidth="12980" windowHeight="14490" xr2:uid="{BB154F08-85AE-4E5F-A669-15A2B9050D97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="940">
   <si>
     <t>Unique_Key</t>
   </si>
@@ -3258,24 +3258,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D55E16C-29D8-45B1-B98C-E74208BD73A3}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AO83"/>
+  <dimension ref="A1:AO113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="33.84375" customWidth="1"/>
+    <col min="2" max="2" width="31.15234375" customWidth="1"/>
     <col min="3" max="3" width="69" customWidth="1"/>
-    <col min="4" max="4" width="76.7265625" customWidth="1"/>
-    <col min="25" max="25" width="52.54296875" customWidth="1"/>
-    <col min="29" max="29" width="92.1796875" customWidth="1"/>
-    <col min="33" max="33" width="81.1796875" customWidth="1"/>
+    <col min="4" max="4" width="76.69140625" customWidth="1"/>
+    <col min="25" max="25" width="77.15234375" customWidth="1"/>
+    <col min="29" max="29" width="92.15234375" customWidth="1"/>
+    <col min="33" max="33" width="81.15234375" customWidth="1"/>
+    <col min="36" max="36" width="34.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>154</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>128</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>158</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>159</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>160</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>161</v>
       </c>
@@ -3958,7 +3959,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>158</v>
       </c>
@@ -4059,7 +4060,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>180</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="E9" t="s">
         <v>182</v>
@@ -4157,7 +4158,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>102</v>
       </c>
@@ -4261,7 +4262,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>143</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>233</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>249</v>
       </c>
@@ -4537,7 +4538,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>148</v>
       </c>
@@ -4638,7 +4639,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>285</v>
       </c>
@@ -4718,7 +4719,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>151</v>
       </c>
@@ -4810,7 +4811,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>150</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>153</v>
       </c>
@@ -4988,7 +4989,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>100</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="20" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>101</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>198</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
         <v>199</v>
@@ -5196,7 +5197,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>353</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>103</v>
       </c>
@@ -5386,7 +5387,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>104</v>
       </c>
@@ -5487,7 +5488,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>105</v>
       </c>
@@ -5585,7 +5586,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>106</v>
       </c>
@@ -5686,7 +5687,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>107</v>
       </c>
@@ -5784,7 +5785,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="27" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>108</v>
       </c>
@@ -5882,7 +5883,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>109</v>
       </c>
@@ -5983,7 +5984,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>110</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>112</v>
       </c>
@@ -6188,7 +6189,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>113</v>
       </c>
@@ -6289,7 +6290,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>114</v>
       </c>
@@ -6390,7 +6391,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>115</v>
       </c>
@@ -6401,7 +6402,7 @@
         <v>507</v>
       </c>
       <c r="D33" t="s">
-        <v>288</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>508</v>
@@ -6491,7 +6492,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="34" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>116</v>
       </c>
@@ -6595,7 +6596,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="35" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>119</v>
       </c>
@@ -6699,7 +6700,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="36" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>120</v>
       </c>
@@ -6785,7 +6786,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>123</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="38" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>156</v>
       </c>
@@ -6975,7 +6976,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="39" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>130</v>
       </c>
@@ -7061,7 +7062,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="40" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>131</v>
       </c>
@@ -7156,7 +7157,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="41" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>645</v>
       </c>
@@ -7251,7 +7252,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>646</v>
       </c>
@@ -7343,7 +7344,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="43" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>647</v>
       </c>
@@ -7438,7 +7439,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>648</v>
       </c>
@@ -7539,7 +7540,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>651</v>
       </c>
@@ -7640,7 +7641,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>652</v>
       </c>
@@ -7711,7 +7712,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>653</v>
       </c>
@@ -7803,7 +7804,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="48" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>133</v>
       </c>
@@ -7904,7 +7905,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>137</v>
       </c>
@@ -7993,7 +7994,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>141</v>
       </c>
@@ -8091,7 +8092,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>142</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="52" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>690</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
         <v>691</v>
       </c>
@@ -8367,7 +8368,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="54" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>145</v>
       </c>
@@ -8441,7 +8442,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="55" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <v>147</v>
       </c>
@@ -8539,7 +8540,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>702</v>
       </c>
@@ -8640,7 +8641,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <v>149</v>
       </c>
@@ -8735,7 +8736,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>144</v>
       </c>
@@ -8809,7 +8810,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>717</v>
       </c>
@@ -8901,7 +8902,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:41" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
         <v>718</v>
       </c>
@@ -8975,7 +8976,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>719</v>
       </c>
@@ -9055,7 +9056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>111</v>
       </c>
@@ -9156,7 +9157,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="63" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <v>117</v>
       </c>
@@ -9257,7 +9258,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="64" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <v>118</v>
       </c>
@@ -9352,7 +9353,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="65" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>121</v>
       </c>
@@ -9447,7 +9448,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="66" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <v>122</v>
       </c>
@@ -9539,7 +9540,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="67" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <v>125</v>
       </c>
@@ -9628,7 +9629,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="68" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <v>126</v>
       </c>
@@ -9726,7 +9727,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="69" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <v>127</v>
       </c>
@@ -9824,7 +9825,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <v>129</v>
       </c>
@@ -9904,7 +9905,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="71" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <v>155</v>
       </c>
@@ -9966,7 +9967,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <v>157</v>
       </c>
@@ -10025,7 +10026,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="73" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>862</v>
       </c>
@@ -10090,7 +10091,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>863</v>
       </c>
@@ -10149,7 +10150,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <v>163</v>
       </c>
@@ -10211,7 +10212,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="76" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <v>132</v>
       </c>
@@ -10273,7 +10274,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="77" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <v>134</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="78" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <v>136</v>
       </c>
@@ -10394,7 +10395,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="79" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <v>138</v>
       </c>
@@ -10456,7 +10457,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="80" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <v>139</v>
       </c>
@@ -10521,7 +10522,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <v>140</v>
       </c>
@@ -10586,7 +10587,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <v>146</v>
       </c>
@@ -10642,7 +10643,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <v>124</v>
       </c>
@@ -10699,13 +10700,512 @@
       </c>
       <c r="AG83" t="s">
         <v>939</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="E87" t="s">
+        <v>148</v>
+      </c>
+      <c r="F87" t="s">
+        <v>153</v>
+      </c>
+      <c r="G87" t="s">
+        <v>154</v>
+      </c>
+      <c r="J87" t="s">
+        <v>155</v>
+      </c>
+      <c r="K87" t="s">
+        <v>156</v>
+      </c>
+      <c r="N87" t="s">
+        <v>157</v>
+      </c>
+      <c r="O87" s="4"/>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="E88" t="s">
+        <v>187</v>
+      </c>
+      <c r="F88" t="s">
+        <v>191</v>
+      </c>
+      <c r="G88" t="s">
+        <v>192</v>
+      </c>
+      <c r="J88" t="s">
+        <v>193</v>
+      </c>
+      <c r="K88" t="s">
+        <v>194</v>
+      </c>
+      <c r="N88" t="s">
+        <v>195</v>
+      </c>
+      <c r="O88" s="4"/>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="E89" t="s">
+        <v>257</v>
+      </c>
+      <c r="F89" t="s">
+        <v>261</v>
+      </c>
+      <c r="G89" t="s">
+        <v>262</v>
+      </c>
+      <c r="J89" t="s">
+        <v>263</v>
+      </c>
+      <c r="K89" t="s">
+        <v>264</v>
+      </c>
+      <c r="N89" t="s">
+        <v>265</v>
+      </c>
+      <c r="O89" s="4"/>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="E90" t="s">
+        <v>148</v>
+      </c>
+      <c r="F90" t="s">
+        <v>346</v>
+      </c>
+      <c r="G90" t="s">
+        <v>347</v>
+      </c>
+      <c r="J90" t="s">
+        <v>348</v>
+      </c>
+      <c r="K90" t="s">
+        <v>349</v>
+      </c>
+      <c r="L90" t="s">
+        <v>350</v>
+      </c>
+      <c r="N90" t="s">
+        <v>351</v>
+      </c>
+      <c r="O90" s="4"/>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="E91" t="s">
+        <v>574</v>
+      </c>
+      <c r="G91" t="s">
+        <v>577</v>
+      </c>
+      <c r="J91" t="s">
+        <v>578</v>
+      </c>
+      <c r="M91" t="s">
+        <v>579</v>
+      </c>
+      <c r="N91" t="s">
+        <v>580</v>
+      </c>
+      <c r="O91" s="4"/>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="E92" t="s">
+        <v>148</v>
+      </c>
+      <c r="F92" t="s">
+        <v>153</v>
+      </c>
+      <c r="G92" t="s">
+        <v>154</v>
+      </c>
+      <c r="J92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K92" t="s">
+        <v>156</v>
+      </c>
+      <c r="N92" t="s">
+        <v>157</v>
+      </c>
+      <c r="O92" s="4"/>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="E93" t="s">
+        <v>257</v>
+      </c>
+      <c r="F93" t="s">
+        <v>261</v>
+      </c>
+      <c r="G93" t="s">
+        <v>262</v>
+      </c>
+      <c r="J93" t="s">
+        <v>263</v>
+      </c>
+      <c r="K93" t="s">
+        <v>264</v>
+      </c>
+      <c r="N93" t="s">
+        <v>265</v>
+      </c>
+      <c r="O93" s="4"/>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="E94" t="s">
+        <v>741</v>
+      </c>
+      <c r="F94" t="s">
+        <v>746</v>
+      </c>
+      <c r="G94" t="s">
+        <v>747</v>
+      </c>
+      <c r="J94" t="s">
+        <v>368</v>
+      </c>
+      <c r="K94" t="s">
+        <v>748</v>
+      </c>
+      <c r="L94" t="s">
+        <v>749</v>
+      </c>
+      <c r="N94" t="s">
+        <v>750</v>
+      </c>
+      <c r="O94" s="4"/>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="E95" t="s">
+        <v>729</v>
+      </c>
+      <c r="F95" t="s">
+        <v>759</v>
+      </c>
+      <c r="G95" t="s">
+        <v>760</v>
+      </c>
+      <c r="J95" t="s">
+        <v>368</v>
+      </c>
+      <c r="K95" t="s">
+        <v>761</v>
+      </c>
+      <c r="L95" t="s">
+        <v>762</v>
+      </c>
+      <c r="N95" t="s">
+        <v>763</v>
+      </c>
+      <c r="O95" s="4"/>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="E96" t="s">
+        <v>148</v>
+      </c>
+      <c r="F96" t="s">
+        <v>846</v>
+      </c>
+      <c r="G96" t="s">
+        <v>847</v>
+      </c>
+      <c r="J96" t="s">
+        <v>848</v>
+      </c>
+      <c r="K96" t="s">
+        <v>849</v>
+      </c>
+      <c r="N96" t="s">
+        <v>850</v>
+      </c>
+      <c r="O96" s="4"/>
+    </row>
+    <row r="97" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E97" t="s">
+        <v>148</v>
+      </c>
+      <c r="F97" t="s">
+        <v>153</v>
+      </c>
+      <c r="G97" t="s">
+        <v>154</v>
+      </c>
+      <c r="J97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K97" t="s">
+        <v>156</v>
+      </c>
+      <c r="N97" t="s">
+        <v>157</v>
+      </c>
+      <c r="O97" s="4"/>
+    </row>
+    <row r="98" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E98" t="s">
+        <v>148</v>
+      </c>
+      <c r="F98" t="s">
+        <v>868</v>
+      </c>
+      <c r="G98" t="s">
+        <v>869</v>
+      </c>
+      <c r="J98" t="s">
+        <v>870</v>
+      </c>
+      <c r="K98" t="s">
+        <v>871</v>
+      </c>
+      <c r="N98" t="s">
+        <v>872</v>
+      </c>
+      <c r="O98" s="4"/>
+    </row>
+    <row r="99" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E99" t="s">
+        <v>148</v>
+      </c>
+      <c r="F99" t="s">
+        <v>890</v>
+      </c>
+      <c r="G99" t="s">
+        <v>891</v>
+      </c>
+      <c r="J99" t="s">
+        <v>578</v>
+      </c>
+      <c r="K99" t="s">
+        <v>892</v>
+      </c>
+      <c r="N99" t="s">
+        <v>893</v>
+      </c>
+      <c r="O99" s="4"/>
+    </row>
+    <row r="100" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E100" t="s">
+        <v>148</v>
+      </c>
+      <c r="F100" t="s">
+        <v>911</v>
+      </c>
+      <c r="G100" t="s">
+        <v>912</v>
+      </c>
+      <c r="J100" t="s">
+        <v>913</v>
+      </c>
+      <c r="K100" t="s">
+        <v>914</v>
+      </c>
+      <c r="N100" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="101" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E101" t="s">
+        <v>916</v>
+      </c>
+      <c r="F101" t="s">
+        <v>917</v>
+      </c>
+      <c r="G101" t="s">
+        <v>918</v>
+      </c>
+      <c r="J101" t="s">
+        <v>919</v>
+      </c>
+      <c r="K101" t="s">
+        <v>920</v>
+      </c>
+      <c r="N101" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="105" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E105" t="s">
+        <v>118</v>
+      </c>
+      <c r="F105" t="s">
+        <v>171</v>
+      </c>
+      <c r="G105" t="s">
+        <v>172</v>
+      </c>
+      <c r="J105" t="s">
+        <v>173</v>
+      </c>
+      <c r="K105" t="s">
+        <v>174</v>
+      </c>
+      <c r="N105" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E106" t="s">
+        <v>275</v>
+      </c>
+      <c r="F106" t="s">
+        <v>277</v>
+      </c>
+      <c r="G106" t="s">
+        <v>278</v>
+      </c>
+      <c r="J106" t="s">
+        <v>279</v>
+      </c>
+      <c r="K106" t="s">
+        <v>280</v>
+      </c>
+      <c r="N106" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="107" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E107" t="s">
+        <v>659</v>
+      </c>
+      <c r="F107" t="s">
+        <v>663</v>
+      </c>
+      <c r="G107" t="s">
+        <v>664</v>
+      </c>
+      <c r="J107" t="s">
+        <v>665</v>
+      </c>
+      <c r="K107" t="s">
+        <v>666</v>
+      </c>
+      <c r="N107" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="108" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E108" t="s">
+        <v>118</v>
+      </c>
+      <c r="F108" t="s">
+        <v>171</v>
+      </c>
+      <c r="G108" t="s">
+        <v>172</v>
+      </c>
+      <c r="J108" t="s">
+        <v>173</v>
+      </c>
+      <c r="K108" t="s">
+        <v>174</v>
+      </c>
+      <c r="N108" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E109" t="s">
+        <v>275</v>
+      </c>
+      <c r="F109" t="s">
+        <v>277</v>
+      </c>
+      <c r="G109" t="s">
+        <v>278</v>
+      </c>
+      <c r="J109" t="s">
+        <v>279</v>
+      </c>
+      <c r="K109" t="s">
+        <v>280</v>
+      </c>
+      <c r="N109" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="110" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E110" t="s">
+        <v>703</v>
+      </c>
+      <c r="F110" t="s">
+        <v>706</v>
+      </c>
+      <c r="G110" t="s">
+        <v>707</v>
+      </c>
+      <c r="J110" t="s">
+        <v>708</v>
+      </c>
+      <c r="K110" t="s">
+        <v>709</v>
+      </c>
+      <c r="N110" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="111" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E111" t="s">
+        <v>727</v>
+      </c>
+      <c r="F111" t="s">
+        <v>731</v>
+      </c>
+      <c r="G111" t="s">
+        <v>732</v>
+      </c>
+      <c r="J111" t="s">
+        <v>733</v>
+      </c>
+      <c r="K111" t="s">
+        <v>734</v>
+      </c>
+      <c r="N111" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="112" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E112" t="s">
+        <v>307</v>
+      </c>
+      <c r="F112" t="s">
+        <v>808</v>
+      </c>
+      <c r="G112" t="s">
+        <v>809</v>
+      </c>
+      <c r="J112" t="s">
+        <v>810</v>
+      </c>
+      <c r="K112" t="s">
+        <v>811</v>
+      </c>
+      <c r="N112" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="113" spans="5:14" x14ac:dyDescent="0.4">
+      <c r="E113" t="s">
+        <v>821</v>
+      </c>
+      <c r="F113" t="s">
+        <v>824</v>
+      </c>
+      <c r="G113" t="s">
+        <v>825</v>
+      </c>
+      <c r="J113" t="s">
+        <v>826</v>
+      </c>
+      <c r="K113" t="s">
+        <v>827</v>
+      </c>
+      <c r="N113" t="s">
+        <v>828</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AO83" xr:uid="{E8DD126E-20A4-4589-B416-3FC68F66F6B1}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Adaptive_Pragmatists"/>
+        <filter val="Market_Based"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AO60">
@@ -10717,6 +11217,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="024b7f7f-dff1-411f-b211-75ee0ccd1ac0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B7F65B25344CC47849A91FD628B10BD" ma:contentTypeVersion="16" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="ad87c43e437cca6b8ee5e7779507047a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="024b7f7f-dff1-411f-b211-75ee0ccd1ac0" xmlns:ns4="f15d149d-abb1-4532-8380-d462b3268d03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac0845a53d7cfe425172a7c50cd3692e" ns3:_="" ns4:_="">
     <xsd:import namespace="024b7f7f-dff1-411f-b211-75ee0ccd1ac0"/>
@@ -10955,24 +11472,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="024b7f7f-dff1-411f-b211-75ee0ccd1ac0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B239BDB3-6262-45A1-A684-FD14E2F4913C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="024b7f7f-dff1-411f-b211-75ee0ccd1ac0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE30047F-FACE-4EFF-A9D3-331FFC9E1024}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36DA3F14-B37E-48A6-ADCF-E21BCDD83114}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10989,22 +11507,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B239BDB3-6262-45A1-A684-FD14E2F4913C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="024b7f7f-dff1-411f-b211-75ee0ccd1ac0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE30047F-FACE-4EFF-A9D3-331FFC9E1024}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>